--- a/Otras cosas/Tenis.xlsx
+++ b/Otras cosas/Tenis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE47107-F1E2-4B83-828A-956E175D6192}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C98CB3-A25B-4CFF-AD93-92EF088F3233}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Benoit Paire</t>
   </si>
   <si>
     <t>Tomas Berdych</t>
-  </si>
-  <si>
-    <t>Más de 23.5</t>
-  </si>
-  <si>
-    <t>Vic LCL</t>
   </si>
   <si>
     <t>Alex Bolt</t>
@@ -559,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,47 +563,53 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>4</v>
       </c>
-      <c r="M2" t="s">
-        <v>6</v>
-      </c>
       <c r="R2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s">
         <v>7</v>
-      </c>
-      <c r="T2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" t="s">
-        <v>5</v>
-      </c>
       <c r="R3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" t="s">
         <v>8</v>
-      </c>
-      <c r="T3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
